--- a/reports/oversampling_methods_comparison.xlsx
+++ b/reports/oversampling_methods_comparison.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance" sheetId="1" r:id="rId1"/>
+    <sheet name="Distribution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sampler</t>
   </si>
@@ -64,6 +65,27 @@
     <t>[[689  53   8]
  [116  16   7]
  [ 36   3 191]]</t>
+  </si>
+  <si>
+    <t>원본 개수</t>
+  </si>
+  <si>
+    <t>원본 비율(%)</t>
+  </si>
+  <si>
+    <t>SMOTE 개수</t>
+  </si>
+  <si>
+    <t>SMOTE 비율(%)</t>
+  </si>
+  <si>
+    <t>정상(0)</t>
+  </si>
+  <si>
+    <t>경증(1)</t>
+  </si>
+  <si>
+    <t>중등도이상(2)</t>
   </si>
 </sst>
 </file>
@@ -530,4 +552,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>2991</v>
+      </c>
+      <c r="C2">
+        <v>66.88</v>
+      </c>
+      <c r="D2">
+        <v>2991</v>
+      </c>
+      <c r="E2">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>481</v>
+      </c>
+      <c r="C3">
+        <v>10.76</v>
+      </c>
+      <c r="D3">
+        <v>2991</v>
+      </c>
+      <c r="E3">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>22.36</v>
+      </c>
+      <c r="D4">
+        <v>2991</v>
+      </c>
+      <c r="E4">
+        <v>33.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>